--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57145.61200162493</v>
+        <v>11371976.78832335</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57145.61200162493</v>
+        <v>11371976.78832335</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20748.25314014655</v>
+        <v>2572962.953414395</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20748.25314014655</v>
+        <v>2572962.953414395</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495882637.532804</v>
+        <v>60212189.18859557</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12791.99037508473</v>
+        <v>1417492.251945144</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24375.17888766597</v>
+        <v>2645384.866269423</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35958.3674002472</v>
+        <v>3873277.480593704</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48629.51081793613</v>
+        <v>4955085.91139879</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60311.91117933812</v>
+        <v>6174274.365731375</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71928.52485261724</v>
+        <v>7402166.980055654</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83545.13852589636</v>
+        <v>8630059.59437993</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95161.75219917546</v>
+        <v>9857952.208704205</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107389.6206067461</v>
+        <v>10935769.72413916</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119110.7382311878</v>
+        <v>12171091.99364648</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130759.7912091649</v>
+        <v>13392073.39850732</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142408.8441871419</v>
+        <v>14613054.80336818</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154057.8971651189</v>
+        <v>15834036.20822905</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166698.1548558954</v>
+        <v>16917019.82802662</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182581.454121673</v>
+        <v>17603430.15721911</v>
       </c>
     </row>
   </sheetData>
